--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1411.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1411.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.461886573545985</v>
+        <v>1.208766341209412</v>
       </c>
       <c r="B1">
-        <v>2.086482070014533</v>
+        <v>1.550592541694641</v>
       </c>
       <c r="C1">
-        <v>2.400650265483666</v>
+        <v>6.99921989440918</v>
       </c>
       <c r="D1">
-        <v>2.743739587466463</v>
+        <v>2.193573236465454</v>
       </c>
       <c r="E1">
-        <v>3.086178994864959</v>
+        <v>1.172656059265137</v>
       </c>
     </row>
   </sheetData>
